--- a/Transfer Function.xlsx
+++ b/Transfer Function.xlsx
@@ -735,6 +735,7 @@
       </c>
     </row>
   </sheetData>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
   <ignoredErrors>
